--- a/output/relatorio.dis.xlsx
+++ b/output/relatorio.dis.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14" xml:space="preserve">
   <si>
     <t>ICMS</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>ValorTotalIcms</t>
+  </si>
+  <si>
+    <t>Exoneração do ICMS</t>
+  </si>
+  <si>
+    <t>SP</t>
   </si>
 </sst>
 </file>
@@ -171,19 +177,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.534831460674157"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.134831460674157"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="12.884831460674157"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="11.234831460674156"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="32.68483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="26.084831460674156"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.884831460674157"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.534831460674157"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.534831460674157"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="27.734831460674155"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="31.034831460674155"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="24.434831460674157"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="7.9348314606741575"/>
@@ -231,6 +237,262 @@
         <v>11</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="5" t="n">
+        <v>1809776890</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>5034502607</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>20180601</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>102936</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>1809776890</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>5034502607</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>20180601</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>102936</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>1809776890</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>5034502607</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>20180601</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>102936</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>1809776890</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>5034502607</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>20180601</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>102936</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>1809776890</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>5034502607</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>20180601</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>102936</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="n">
+        <v>1809776890</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>5034502607</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>20180601</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>102936</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="n">
+        <v>1809776890</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>5034502607</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>20180601</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>102936</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="n">
+        <v>1809776890</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>5034502607</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>20180601</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>102936</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>

--- a/output/relatorio.dis.xlsx
+++ b/output/relatorio.dis.xlsx
@@ -35,16 +35,16 @@
     <t>HoraRegistro</t>
   </si>
   <si>
-    <t>NomeTipoRecolhimentoIcms</t>
-  </si>
-  <si>
-    <t>NumeroSequencialIcms</t>
-  </si>
-  <si>
-    <t>UFIcms</t>
-  </si>
-  <si>
-    <t>ValorTotalIcms</t>
+    <t>NomeTipoRecolhimentoICMS</t>
+  </si>
+  <si>
+    <t>NumeroSequencialICMS</t>
+  </si>
+  <si>
+    <t>UFICMS</t>
+  </si>
+  <si>
+    <t>ValorTotalICMS</t>
   </si>
   <si>
     <t>Exoneração do ICMS</t>
@@ -177,7 +177,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -188,12 +188,12 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="11.234831460674156"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="32.68483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="26.084831460674156"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.534831460674157"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="27.734831460674155"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="31.034831460674155"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="24.434831460674157"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="7.9348314606741575"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.884831460674157"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.834831460674156"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.534831460674157"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="34.33483146067415"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="27.734831460674155"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.234831460674156"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.184831460674157"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -239,225 +239,246 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
-        <v>1809776890</v>
+        <v>1809771180</v>
       </c>
       <c r="B4" s="5" t="n">
         <v>0</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>5034502607</v>
+        <v>3</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20180601</v>
+        <v>5034502607</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>102936</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="5" t="n">
+        <v>20180601</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>91512</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
-        <v>1809776890</v>
+        <v>1809771341</v>
       </c>
       <c r="B5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>5034502607</v>
+        <v>3</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>20180601</v>
+        <v>5034502607</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>102936</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="5" t="n">
+        <v>20180601</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>91528</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
-        <v>1809776890</v>
+        <v>1809775185</v>
       </c>
       <c r="B6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5034502607</v>
+        <v>3</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>20180601</v>
+        <v>5034502607</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>102936</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="5" t="n">
+        <v>20180601</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>102952</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
-        <v>1809776890</v>
+        <v>1809775371</v>
       </c>
       <c r="B7" s="5" t="n">
         <v>0</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>5034502607</v>
+        <v>3</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>20180601</v>
+        <v>5034502607</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>102936</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="5" t="n">
+        <v>20180601</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>102959</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
-        <v>1809776890</v>
+        <v>1809775673</v>
       </c>
       <c r="B8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>5034502607</v>
+        <v>3</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>20180601</v>
+        <v>5034502607</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>102936</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="5" t="n">
+        <v>20180601</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>103034</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
-        <v>1809776890</v>
+        <v>1809775924</v>
       </c>
       <c r="B9" s="5" t="n">
         <v>0</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5034502607</v>
+        <v>3</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>20180601</v>
+        <v>5034502607</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>102936</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="5" t="n">
+        <v>20180601</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>103027</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
-        <v>1809776890</v>
+        <v>1809776106</v>
       </c>
       <c r="B10" s="5" t="n">
         <v>0</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>5034502607</v>
+        <v>3</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>20180601</v>
+        <v>5034502607</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>102936</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="5" t="n">
+        <v>20180601</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>102945</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -469,27 +490,30 @@
         <v>0</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>5034502607</v>
+        <v>3</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>20180601</v>
+        <v>5034502607</v>
       </c>
       <c r="F11" s="5" t="n">
+        <v>20180601</v>
+      </c>
+      <c r="G11" s="5" t="n">
         <v>102936</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="5" t="n">
+      <c r="H11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="5" t="n">
         <v>0</v>
       </c>
     </row>
